--- a/Mifos Automation Excels/Loan Product/1925-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-2-LATE-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/1925-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-2-LATE-Loanproduct.xlsx
@@ -179,9 +179,6 @@
     <t>abc</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>currency</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>1925-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-2-LATE</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -658,10 +658,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -741,7 +741,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -749,7 +749,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -826,7 +826,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="7">
         <v>10000</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>17</v>
@@ -934,10 +934,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
